--- a/ReflectionAutomation/testdata/data_Runner.xlsx
+++ b/ReflectionAutomation/testdata/data_Runner.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="6915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="6915" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="16">
   <si>
     <t xml:space="preserve">PackageClassName </t>
   </si>
@@ -428,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,4 +548,250 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>